--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_1.xlsx
@@ -518,1211 +518,1211 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_9</t>
+          <t>model_8_1_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999976203827561</v>
+        <v>0.9999777030366039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990599899152429</v>
+        <v>0.9990310315739944</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999851491969756</v>
+        <v>0.9999731952784487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999991215977749</v>
+        <v>0.9999755417721177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999441208698103</v>
+        <v>0.9999757659342664</v>
       </c>
       <c r="G2" t="n">
-        <v>2.221268244051471e-05</v>
+        <v>2.081323660663647e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008774581524467922</v>
+        <v>0.0009044894928780212</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001219524163996046</v>
+        <v>2.639447517795075e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.058809212213516e-05</v>
+        <v>2.339468128892114e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>6.627025426086991e-05</v>
+        <v>2.489457823343595e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002991656168057935</v>
+        <v>0.0004872403519786798</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004713033252642581</v>
+        <v>0.004562152628599407</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000571108138535</v>
+        <v>1.000535127121505</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004913676835531385</v>
+        <v>0.004756372910956743</v>
       </c>
       <c r="P2" t="n">
-        <v>71.4296943022014</v>
+        <v>71.5598427966777</v>
       </c>
       <c r="Q2" t="n">
-        <v>101.9015899239064</v>
+        <v>102.0317384183827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_8</t>
+          <t>model_8_1_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999763966959524</v>
+        <v>0.9999731820643646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990599749642936</v>
+        <v>0.999030958381131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998550162757164</v>
+        <v>0.9999703639467682</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999909345312235</v>
+        <v>0.999970494408038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99994519799699</v>
+        <v>0.999972059027211</v>
       </c>
       <c r="G3" t="n">
-        <v>2.203264826312769e-05</v>
+        <v>2.503336574429817e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008774721085017966</v>
+        <v>0.000904557815203198</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001190583127790967</v>
+        <v>2.918247331551272e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.092734237154011e-05</v>
+        <v>2.82225647546271e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>6.499282757531842e-05</v>
+        <v>2.870251903506991e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003080353861827461</v>
+        <v>0.0005357173066042214</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004693894786116076</v>
+        <v>0.005003335461899209</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000566479297142</v>
+        <v>1.00064363045525</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00489372360486276</v>
+        <v>0.005216337810844485</v>
       </c>
       <c r="P3" t="n">
-        <v>71.44597038540633</v>
+        <v>71.19060198630164</v>
       </c>
       <c r="Q3" t="n">
-        <v>101.9178660071113</v>
+        <v>101.6624976080067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_10</t>
+          <t>model_8_1_16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999759709331164</v>
+        <v>0.9999813619709672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990599597415869</v>
+        <v>0.999030693050843</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998480855014734</v>
+        <v>0.9999754714865851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999914426674842</v>
+        <v>0.9999795966777481</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999430567125883</v>
+        <v>0.9999787447218309</v>
       </c>
       <c r="G4" t="n">
-        <v>2.243007918168922e-05</v>
+        <v>1.739778198716481e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008774863182302872</v>
+        <v>0.0009048054893803509</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001247497536059972</v>
+        <v>2.415310441654077e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.031484465853026e-05</v>
+        <v>1.951610000598562e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.753229913226374e-05</v>
+        <v>2.183460221126319e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002911815716133186</v>
+        <v>0.0004435093924085171</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004736040453975158</v>
+        <v>0.004171064850510576</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000576697605206</v>
+        <v>1.000447312696787</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004937663501056163</v>
+        <v>0.004348635716491365</v>
       </c>
       <c r="P4" t="n">
-        <v>71.41021535853891</v>
+        <v>71.91833566374211</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.8821109802439</v>
+        <v>102.3902312854471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_7</t>
+          <t>model_8_1_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999765527714682</v>
+        <v>0.9999675946417598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990599334649932</v>
+        <v>0.9990302926497928</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998587846959472</v>
+        <v>0.9999668553724123</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999905807440453</v>
+        <v>0.9999642112147991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999463228766087</v>
+        <v>0.999967452165122</v>
       </c>
       <c r="G5" t="n">
-        <v>2.188695862004701e-05</v>
+        <v>3.024897948642731e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008775108462770376</v>
+        <v>0.0009051792461851704</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001159637464286966</v>
+        <v>3.263734892663049e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.135379065748878e-05</v>
+        <v>3.423253833118872e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>6.365876854309271e-05</v>
+        <v>3.34349436289096e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003178757893433757</v>
+        <v>0.0005895360144184783</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004678349989050307</v>
+        <v>0.005499907225256378</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000562733484762</v>
+        <v>1.000777728597765</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004877517033603735</v>
+        <v>0.005734049662213027</v>
       </c>
       <c r="P5" t="n">
-        <v>71.45923919064393</v>
+        <v>70.81209622008474</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9311348123489</v>
+        <v>101.2839918417898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_11</t>
+          <t>model_8_1_17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999757104508747</v>
+        <v>0.9999843214795899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990598962085361</v>
+        <v>0.999030070403465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998447989351597</v>
+        <v>0.9999773211947814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999991627168912</v>
+        <v>0.999982846548534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999420126271704</v>
+        <v>0.9999811442957253</v>
       </c>
       <c r="G6" t="n">
-        <v>2.267322792049401e-05</v>
+        <v>1.463521059533664e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008775456235443806</v>
+        <v>0.0009053867033766474</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001274486292355839</v>
+        <v>2.233170601165613e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.009245017246589e-05</v>
+        <v>1.640754726724897e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>6.877053970402491e-05</v>
+        <v>1.936962663945255e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002839019162375887</v>
+        <v>0.0004041368402887587</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004761641305316268</v>
+        <v>0.003825599377265821</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000582949179006</v>
+        <v>1.000376284489842</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004964354233639931</v>
+        <v>0.003988463062838463</v>
       </c>
       <c r="P6" t="n">
-        <v>71.38865143252634</v>
+        <v>72.26416049616405</v>
       </c>
       <c r="Q6" t="n">
-        <v>101.8605470542314</v>
+        <v>102.7360561178691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_12</t>
+          <t>model_8_1_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999754465177592</v>
+        <v>0.9999867128680791</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990598203383781</v>
+        <v>0.9990292131308141</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999841768383258</v>
+        <v>0.9999787992065889</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999917702825454</v>
+        <v>0.9999854449829396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999410361440604</v>
+        <v>0.9999830624330516</v>
       </c>
       <c r="G7" t="n">
-        <v>2.291959789856671e-05</v>
+        <v>1.240295441048365e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008776164450065286</v>
+        <v>0.000906186929766458</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001299372699294044</v>
+        <v>2.087631518090323e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>9.919943740808762e-06</v>
+        <v>1.392210371579698e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>6.992860683510658e-05</v>
+        <v>1.739920944835011e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002773761126133334</v>
+        <v>0.0003686690674847234</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004787441686179239</v>
+        <v>0.003521782845446841</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00058928357378</v>
+        <v>1.000318891166103</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00499125299013039</v>
+        <v>0.003671712432273027</v>
       </c>
       <c r="P7" t="n">
-        <v>71.36703641992835</v>
+        <v>72.59515170964491</v>
       </c>
       <c r="Q7" t="n">
-        <v>101.8389320416334</v>
+        <v>103.0670473313499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_6</t>
+          <t>model_8_1_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999766340996958</v>
+        <v>0.9999606906089636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990598083666522</v>
+        <v>0.9990287876171462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998626271805081</v>
+        <v>0.9999624492856626</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999901436405805</v>
+        <v>0.9999564106489436</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999474310577261</v>
+        <v>0.9999617086983854</v>
       </c>
       <c r="G8" t="n">
-        <v>2.181104228941245e-05</v>
+        <v>3.669359104959351e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008776276200872294</v>
+        <v>0.0009065841280975355</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001128083596364361</v>
+        <v>3.697600050048588e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.188066679928349e-05</v>
+        <v>4.169390278241903e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>6.23445132178598e-05</v>
+        <v>3.933495164145246e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003287969389949904</v>
+        <v>0.0006492764972809487</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00467022936154237</v>
+        <v>0.006057523507968707</v>
       </c>
       <c r="N8" t="n">
-        <v>1.0005607816073</v>
+        <v>1.000943425384873</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004869050694170768</v>
+        <v>0.006315404824505255</v>
       </c>
       <c r="P8" t="n">
-        <v>71.46618837874695</v>
+        <v>70.4258168979095</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.938084000452</v>
+        <v>100.8977125196145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_13</t>
+          <t>model_8_1_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999751779952936</v>
+        <v>0.9999886390909772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990597260813635</v>
+        <v>0.9990282570159292</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998389154734357</v>
+        <v>0.9999799765823889</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999918856435114</v>
+        <v>0.9999875132526729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999940107059078</v>
+        <v>0.9999845896522345</v>
       </c>
       <c r="G9" t="n">
-        <v>2.317025183335426e-05</v>
+        <v>1.060490988645935e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008777044297922521</v>
+        <v>0.0009070794210428946</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001322800337922918</v>
+        <v>1.971695912241207e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>9.780889842735332e-06</v>
+        <v>1.194377104743557e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>7.103046181751358e-05</v>
+        <v>1.583036508492382e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002714293659350256</v>
+        <v>0.0003370266273734213</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004813548777498184</v>
+        <v>0.003256518061743149</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000595728112954</v>
+        <v>1.000272661816546</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005018471514375912</v>
+        <v>0.003395154777553267</v>
       </c>
       <c r="P9" t="n">
-        <v>71.34528270127686</v>
+        <v>72.90838693450601</v>
       </c>
       <c r="Q9" t="n">
-        <v>101.8171783229819</v>
+        <v>103.380282556211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_14</t>
+          <t>model_8_1_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999749037562716</v>
+        <v>0.99999019622115</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990596219841393</v>
+        <v>0.9990272642051449</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998362058200966</v>
+        <v>0.9999809439151321</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999919765614279</v>
+        <v>0.9999891545983023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999392151494464</v>
+        <v>0.9999858174386215</v>
       </c>
       <c r="G10" t="n">
-        <v>2.342624192269702e-05</v>
+        <v>9.15139722025412e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008778015999817501</v>
+        <v>0.0009080061663306409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001345051577251444</v>
+        <v>1.876443141080221e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>9.671299128098489e-06</v>
+        <v>1.037379802779832e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>7.208822842662144e-05</v>
+        <v>1.456911471930026e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002661088553909913</v>
+        <v>0.0003125253613927264</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004840066313873913</v>
+        <v>0.003025127637018663</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000602309849481</v>
+        <v>1.000235290692399</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005046117957174024</v>
+        <v>0.003153913583404049</v>
       </c>
       <c r="P10" t="n">
-        <v>71.32330742853536</v>
+        <v>73.20320797733488</v>
       </c>
       <c r="Q10" t="n">
-        <v>101.7952030502404</v>
+        <v>103.6751035990399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_5</t>
+          <t>model_8_1_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999766136080539</v>
+        <v>0.9999521690205933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990595997893125</v>
+        <v>0.9990263713240525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999866504321983</v>
+        <v>0.9999570383879905</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999895984200844</v>
+        <v>0.9999467069945839</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999484962935759</v>
+        <v>0.9999545976232997</v>
       </c>
       <c r="G11" t="n">
-        <v>2.183017033773564e-05</v>
+        <v>4.464811973882728e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008778223178783009</v>
+        <v>0.0009088396316374517</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001096245131413575</v>
+        <v>4.230408436143064e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.253786513906101e-05</v>
+        <v>5.097560144738757e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>6.108118914020924e-05</v>
+        <v>4.66398429044091e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003409623640385304</v>
+        <v>0.0007156066922006528</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004672276783082916</v>
+        <v>0.006681924852827011</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000561273406706</v>
+        <v>1.001147943505762</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004871185278685042</v>
+        <v>0.006966388227303149</v>
       </c>
       <c r="P11" t="n">
-        <v>71.46443516902646</v>
+        <v>70.0333967252819</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.9363307907315</v>
+        <v>100.5052923469869</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_15</t>
+          <t>model_8_1_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999746365736152</v>
+        <v>0.9999914535572715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990595159499015</v>
+        <v>0.9990261839647417</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998336945993641</v>
+        <v>0.9999817148545186</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999920467584549</v>
+        <v>0.9999904579046631</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999383814093344</v>
+        <v>0.9999867937162865</v>
       </c>
       <c r="G12" t="n">
-        <v>2.367564520442929e-05</v>
+        <v>7.977729141569242e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000877900578288335</v>
+        <v>0.0009090145233299163</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001365673319788546</v>
+        <v>1.800529125484472e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>9.586684976749345e-06</v>
+        <v>9.127164907786144e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>7.307700847780198e-05</v>
+        <v>1.356622808131543e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002613188628365265</v>
+        <v>0.0002909961971271965</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004865762551176258</v>
+        <v>0.002824487412181057</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000608722233236</v>
+        <v>1.000205114625484</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005072908136496874</v>
+        <v>0.002944731688812582</v>
       </c>
       <c r="P12" t="n">
-        <v>71.30212733340093</v>
+        <v>73.47771351145116</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.7740229551059</v>
+        <v>103.9496091331562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_16</t>
+          <t>model_8_1_22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999743815304829</v>
+        <v>0.9999924658311345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990594010383221</v>
+        <v>0.9990250574034917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998313897015418</v>
+        <v>0.9999823249284224</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999920994937399</v>
+        <v>0.9999914956660468</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999376102267189</v>
+        <v>0.9999875692642471</v>
       </c>
       <c r="G13" t="n">
-        <v>2.391371677333428e-05</v>
+        <v>7.032815924093807e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008780078432036165</v>
+        <v>0.0009100661188065051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001384600771624469</v>
+        <v>1.740455453457379e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>9.52311887457138e-06</v>
+        <v>8.13452975279131e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>7.399159801850915e-05</v>
+        <v>1.276954214368255e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002569798832366193</v>
+        <v>0.0002716383974238863</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004890165311452597</v>
+        <v>0.002651945686490168</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00061484326841</v>
+        <v>1.000180820052771</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005098349772798854</v>
+        <v>0.002764844504648421</v>
       </c>
       <c r="P13" t="n">
-        <v>71.28211668017497</v>
+        <v>73.72984674830228</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.75401230188</v>
+        <v>104.2017423700073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_4</t>
+          <t>model_8_1_23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999764991701731</v>
+        <v>0.9999932811580831</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990593130524431</v>
+        <v>0.9990240237127357</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998706106275695</v>
+        <v>0.9999828262161168</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999889292873363</v>
+        <v>0.9999922998387442</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999495778978266</v>
+        <v>0.9999881839211288</v>
       </c>
       <c r="G14" t="n">
-        <v>2.193699307624797e-05</v>
+        <v>6.271744006424764e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008780899741596369</v>
+        <v>0.0009110310237534635</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001062524807473067</v>
+        <v>1.691093905042393e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.334442493315429e-05</v>
+        <v>7.365325865837399e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>5.979845284023051e-05</v>
+        <v>1.213813245813066e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003542877939894318</v>
+        <v>0.0002542193334302799</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004683694383309822</v>
+        <v>0.002504345025435745</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000564019915847</v>
+        <v>1.000161252206007</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004883088949791298</v>
+        <v>0.002610960177877422</v>
       </c>
       <c r="P14" t="n">
-        <v>71.45467232928119</v>
+        <v>73.95891218210261</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.9265679509862</v>
+        <v>104.4308078038076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_17</t>
+          <t>model_8_1_24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999741377643362</v>
+        <v>0.9999939393466718</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990592874285549</v>
+        <v>0.9990230209732271</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998292614784866</v>
+        <v>0.9999832363714574</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999992139061379</v>
+        <v>0.9999929331343572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999368935192844</v>
+        <v>0.9999886753446992</v>
       </c>
       <c r="G15" t="n">
-        <v>2.414126177125184e-05</v>
+        <v>5.657353849919557e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008781138929344764</v>
+        <v>0.0009119670370695315</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001402077398565115</v>
+        <v>1.650706113899727e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>9.475424800470348e-06</v>
+        <v>6.759568608923825e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>7.484158232849091e-05</v>
+        <v>1.163331487396055e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002530511245159608</v>
+        <v>0.0002385109084392322</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004913375801956516</v>
+        <v>0.002378519255738653</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000620693655931</v>
+        <v>1.000145455679877</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005122548381935863</v>
+        <v>0.002479777744669074</v>
       </c>
       <c r="P15" t="n">
-        <v>71.26317614952123</v>
+        <v>74.16510858550342</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.7350717712262</v>
+        <v>104.6370042072084</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_18</t>
+          <t>model_8_1_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999739029348744</v>
+        <v>0.9999416544154237</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990591743227633</v>
+        <v>0.9990226154813789</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998272697051804</v>
+        <v>0.9999503183084369</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999921719280621</v>
+        <v>0.9999347199005528</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999362206469683</v>
+        <v>0.999945795980078</v>
       </c>
       <c r="G16" t="n">
-        <v>2.43604647659948e-05</v>
+        <v>5.446304212682897e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008782194722262499</v>
+        <v>0.0009123455459108282</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001418433522016252</v>
+        <v>4.892131306994069e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>9.435807930417726e-06</v>
+        <v>6.244144622515014e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.563958006602143e-05</v>
+        <v>5.568137964754541e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000249540250081137</v>
+        <v>0.000789240990533694</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004935632154647954</v>
+        <v>0.007379908002599285</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000626329563014</v>
+        <v>1.001400294029831</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005145752233638378</v>
+        <v>0.007694085964785534</v>
       </c>
       <c r="P16" t="n">
-        <v>71.24509807248151</v>
+        <v>69.63597642487963</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.7169936941865</v>
+        <v>100.1078720465846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_19</t>
+          <t>model_8_1_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999736819184836</v>
+        <v>0.9999287125599949</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990590718376572</v>
+        <v>0.999017210862956</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998254444442297</v>
+        <v>0.9999420838068879</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999921939547073</v>
+        <v>0.9999198664450321</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999355999143547</v>
+        <v>0.9999349340102662</v>
       </c>
       <c r="G17" t="n">
-        <v>2.456677386534725e-05</v>
+        <v>6.654369608777461e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008783151375740987</v>
+        <v>0.0009173905199732245</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001433422272666984</v>
+        <v>5.702978553901549e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>9.409257434333e-06</v>
+        <v>7.664901104211127e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>7.637574235051567e-05</v>
+        <v>6.683939829056339e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000246354878784745</v>
+        <v>0.0008707145492195481</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004956488057621773</v>
+        <v>0.008157431954222763</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000631633956394</v>
+        <v>1.001710898560122</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005167496015579463</v>
+        <v>0.008504710720726089</v>
       </c>
       <c r="P17" t="n">
-        <v>71.22823136772791</v>
+        <v>69.23530348412194</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.7001269894329</v>
+        <v>99.70719910582696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_20</t>
+          <t>model_8_1_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999734714640742</v>
+        <v>0.9999127327792474</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990589796964088</v>
+        <v>0.9990098296035175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998237401878554</v>
+        <v>0.9999318276301005</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999922120774427</v>
+        <v>0.9999014800034921</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999350190909916</v>
+        <v>0.9999214582358931</v>
       </c>
       <c r="G18" t="n">
-        <v>2.47632238185624e-05</v>
+        <v>8.146011998425656e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008784011473849936</v>
+        <v>0.0009242806016592952</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001447417353112666</v>
+        <v>6.712899149866081e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>9.387412636193413e-06</v>
+        <v>9.423593279027155e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>7.706457397372999e-05</v>
+        <v>8.068246214446618e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000243486207578022</v>
+        <v>0.0009614555657338302</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004976266051826651</v>
+        <v>0.009025526022579325</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000636684862219</v>
+        <v>1.002094413298062</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005188115999943735</v>
+        <v>0.009409761350775042</v>
       </c>
       <c r="P18" t="n">
-        <v>71.21230183187042</v>
+        <v>68.83079396564544</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.6841974535754</v>
+        <v>99.30268958735046</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_21</t>
+          <t>model_8_1_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999732758004057</v>
+        <v>0.9998930709996663</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990588885262393</v>
+        <v>0.9989994147586743</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999822184946733</v>
+        <v>0.9999191378399324</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999922242948905</v>
+        <v>0.99987882861808</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999344868574185</v>
+        <v>0.9999048304448809</v>
       </c>
       <c r="G19" t="n">
-        <v>2.494586726445731e-05</v>
+        <v>9.98135281709127e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008784862507363631</v>
+        <v>0.0009340024021616017</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001460188744171513</v>
+        <v>7.962456437612471e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>9.372685958661351e-06</v>
+        <v>0.0001159023407172914</v>
       </c>
       <c r="K19" t="n">
-        <v>7.769578018790634e-05</v>
+        <v>9.776345254670807e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002409135700533101</v>
+        <v>0.001061749406392113</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004994583792915813</v>
+        <v>0.009990672058020556</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000641380790262</v>
+        <v>1.002566296008009</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005207213565194014</v>
+        <v>0.01041599565107273</v>
       </c>
       <c r="P19" t="n">
-        <v>71.19760478037959</v>
+        <v>68.4244136620371</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.6695004020846</v>
+        <v>98.89630928374211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_3</t>
+          <t>model_8_1_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999762720133614</v>
+        <v>0.999868896301511</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990588496099543</v>
+        <v>0.9989857678617807</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998750885311217</v>
+        <v>0.9999036767791766</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999880678297173</v>
+        <v>0.9998508722975302</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999506904161723</v>
+        <v>0.9998844046161641</v>
       </c>
       <c r="G20" t="n">
-        <v>2.214903398892151e-05</v>
+        <v>0.0001223795477522546</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008785225773801659</v>
+        <v>0.0009467411813821611</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001025752980542653</v>
+        <v>9.484899353371962e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.438280944183179e-05</v>
+        <v>0.0001426430028952325</v>
       </c>
       <c r="K20" t="n">
-        <v>5.847905374804853e-05</v>
+        <v>0.0001187459982144761</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003690235138839529</v>
+        <v>0.001172870208044051</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004706276021327426</v>
+        <v>0.01106252899441419</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000569471679327</v>
+        <v>1.003146488763736</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004906631934889747</v>
+        <v>0.01153348375629838</v>
       </c>
       <c r="P20" t="n">
-        <v>71.43543334932495</v>
+        <v>68.01676659075011</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.90732897103</v>
+        <v>98.48866221245513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_22</t>
+          <t>model_8_1_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999730938923151</v>
+        <v>0.9998392731140892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990587926322521</v>
+        <v>0.9989676747176592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998207623276744</v>
+        <v>0.999884819289156</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999922313470476</v>
+        <v>0.9998163958222817</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999339979141835</v>
+        <v>0.9998593153529358</v>
       </c>
       <c r="G21" t="n">
-        <v>2.511567048220103e-05</v>
+        <v>0.0001500314929028371</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008785757635641312</v>
+        <v>0.0009636303372223601</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001471871064078812</v>
+        <v>0.0001134178695922175</v>
       </c>
       <c r="J21" t="n">
-        <v>9.364185423648297e-06</v>
+        <v>0.0001756202960289111</v>
       </c>
       <c r="K21" t="n">
-        <v>7.827564591576477e-05</v>
+        <v>0.0001445190828105643</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000239012656654691</v>
+        <v>0.001295443229633464</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005011553699423067</v>
+        <v>0.01224873433881383</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000645746584437</v>
+        <v>1.00385744526186</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005224905915753831</v>
+        <v>0.01277018831799268</v>
       </c>
       <c r="P21" t="n">
-        <v>71.18403716926879</v>
+        <v>67.60933066643884</v>
       </c>
       <c r="Q21" t="n">
-        <v>101.6559327909738</v>
+        <v>98.08122628814385</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_23</t>
+          <t>model_8_1_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999729281040554</v>
+        <v>0.9998030262747789</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990587059109591</v>
+        <v>0.9989425035809852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999819482615711</v>
+        <v>0.9998614364037572</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999922347076567</v>
+        <v>0.9997742230218358</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999335565710227</v>
+        <v>0.9998284739713877</v>
       </c>
       <c r="G22" t="n">
-        <v>2.527042654542626e-05</v>
+        <v>0.0001838663263466197</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008786567140844903</v>
+        <v>0.0009871264884223406</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001482379853803978</v>
+        <v>0.0001364428798339523</v>
       </c>
       <c r="J22" t="n">
-        <v>9.360134609846871e-06</v>
+        <v>0.0002159592457777365</v>
       </c>
       <c r="K22" t="n">
-        <v>7.879905999512233e-05</v>
+        <v>0.0001762010628058444</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002375685842209003</v>
+        <v>0.001431537147576584</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005026969916900862</v>
+        <v>0.0135597317947893</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000649725502671</v>
+        <v>1.004727369405306</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005240978433525625</v>
+        <v>0.01413699764980788</v>
       </c>
       <c r="P22" t="n">
-        <v>71.17175151437675</v>
+        <v>67.20260310324332</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.6436471360818</v>
+        <v>97.67449872494834</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_24</t>
+          <t>model_8_1_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999727704741648</v>
+        <v>0.999758178842982</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990586264759127</v>
+        <v>0.9989097029967288</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9998182815764076</v>
+        <v>0.9998324790218671</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999922364685201</v>
+        <v>0.9997218716909513</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999331416522674</v>
+        <v>0.9997902220170214</v>
       </c>
       <c r="G23" t="n">
-        <v>2.541756712912307e-05</v>
+        <v>0.0002257294353542492</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000878730863213527</v>
+        <v>0.001017744394046453</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001492242596242585</v>
+        <v>0.0001649570688754796</v>
       </c>
       <c r="J23" t="n">
-        <v>9.358012098864122e-06</v>
+        <v>0.000266034120661869</v>
       </c>
       <c r="K23" t="n">
-        <v>7.929113586156131e-05</v>
+        <v>0.0002154955947686743</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002362782182104394</v>
+        <v>0.001587937348792722</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00504158379173877</v>
+        <v>0.0150242948371712</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000653508620045</v>
+        <v>1.005803707768432</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005256214451270274</v>
+        <v>0.01566391017296743</v>
       </c>
       <c r="P23" t="n">
-        <v>71.1601400074827</v>
+        <v>66.79234692918573</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.6320356291877</v>
+        <v>97.26424255089074</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999758354527979</v>
+        <v>0.9997032286421393</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990582188410156</v>
+        <v>0.9988681658975522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998794674606545</v>
+        <v>0.9997975720608404</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999870101101578</v>
+        <v>0.9996574093194014</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999516689304095</v>
+        <v>0.9997434800025632</v>
       </c>
       <c r="G24" t="n">
-        <v>2.255654411208729e-05</v>
+        <v>0.0002770230358058839</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008791113724967844</v>
+        <v>0.001056517452859886</v>
       </c>
       <c r="I24" t="n">
-        <v>9.897939124111336e-05</v>
+        <v>0.0001993297787205485</v>
       </c>
       <c r="J24" t="n">
-        <v>1.565776433333039e-05</v>
+        <v>0.0003276933972372202</v>
       </c>
       <c r="K24" t="n">
-        <v>5.731857778722187e-05</v>
+        <v>0.0002635115879788843</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003854118900783052</v>
+        <v>0.001760386429038314</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004749373023051284</v>
+        <v>0.01664400900642282</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000579949132851</v>
+        <v>1.007122512588656</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004951563665200082</v>
+        <v>0.01735257892767464</v>
       </c>
       <c r="P24" t="n">
-        <v>71.39897065917924</v>
+        <v>66.38281978696118</v>
       </c>
       <c r="Q24" t="n">
-        <v>101.8708662808843</v>
+        <v>96.85471540866619</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999751873420101</v>
+        <v>0.9996359430524276</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990573461967662</v>
+        <v>0.9988138825334477</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998840660727157</v>
+        <v>0.9997549632223639</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999856850139019</v>
+        <v>0.9995778618361439</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999525876233575</v>
+        <v>0.9996860234448449</v>
       </c>
       <c r="G25" t="n">
-        <v>2.316152708376327e-05</v>
+        <v>0.0003398311803057542</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008799259475989871</v>
+        <v>0.001107188590487081</v>
       </c>
       <c r="I25" t="n">
-        <v>9.520308465330103e-05</v>
+        <v>0.0002412864887493952</v>
       </c>
       <c r="J25" t="n">
-        <v>1.725500997157915e-05</v>
+        <v>0.0004037818214312637</v>
       </c>
       <c r="K25" t="n">
-        <v>5.622904731244008e-05</v>
+        <v>0.0003225341550903294</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004034900462529115</v>
+        <v>0.001951453597344892</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004812642422179656</v>
+        <v>0.01843451057950154</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000595503791758</v>
+        <v>1.008737366741737</v>
       </c>
       <c r="O25" t="n">
-        <v>0.005017526573635061</v>
+        <v>0.01921930585956854</v>
       </c>
       <c r="P25" t="n">
-        <v>71.34603594234794</v>
+        <v>65.97412318435531</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.817931564053</v>
+        <v>96.44601880606032</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999742693651197</v>
+        <v>0.999553097328762</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990561803404062</v>
+        <v>0.9987453681127745</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998889254607893</v>
+        <v>0.9997021985629385</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999840087840486</v>
+        <v>0.9994794984339883</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999534181577137</v>
+        <v>0.999614939260574</v>
       </c>
       <c r="G26" t="n">
-        <v>2.401841821648941e-05</v>
+        <v>0.0004171640268406822</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008810142233358674</v>
+        <v>0.001171143794750063</v>
       </c>
       <c r="I26" t="n">
-        <v>9.121263297988543e-05</v>
+        <v>0.0002932435848458713</v>
       </c>
       <c r="J26" t="n">
-        <v>1.927550532073464e-05</v>
+        <v>0.0004978679692501741</v>
       </c>
       <c r="K26" t="n">
-        <v>5.524406915031003e-05</v>
+        <v>0.0003955557770480227</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004243048733393968</v>
+        <v>0.002163741170762943</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004900858926401516</v>
+        <v>0.02042459367626887</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000617535237128</v>
+        <v>1.010725664109713</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005109498637074982</v>
+        <v>0.02129411091380519</v>
       </c>
       <c r="P26" t="n">
-        <v>71.27337919249959</v>
+        <v>65.5640621275387</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.7452748142046</v>
+        <v>96.03595774924372</v>
       </c>
     </row>
   </sheetData>
